--- a/results/DeterministicUSM/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>188.6475367386634</v>
+        <v>83.04222924307115</v>
       </c>
       <c r="H2">
-        <v>52.61955836877409</v>
+        <v>22.3299943389724</v>
       </c>
       <c r="I2">
-        <v>136.0279783698893</v>
+        <v>60.71223490409874</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>158.7012386577454</v>
+        <v>102.2348669195342</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>0.8571324302215864</v>
+        <v>0.5938505789016519</v>
       </c>
       <c r="O2">
-        <v>205.4935049353482</v>
+        <v>118.6012307603794</v>
       </c>
       <c r="P2">
-        <v>46.79226627760276</v>
+        <v>16.36636384084513</v>
       </c>
       <c r="Q2">
-        <v>1.479696488493118</v>
+        <v>1.980538620550845</v>
       </c>
       <c r="R2">
-        <v>89.46288655814172</v>
+        <v>69.82065125475359</v>
       </c>
       <c r="S2">
-        <v>4.391612573672419</v>
+        <v>7.246645126169637</v>
       </c>
       <c r="T2">
-        <v>3.585122007610997</v>
+        <v>3.718864769174529</v>
       </c>
       <c r="U2">
-        <v>1.276792506278896</v>
+        <v>1.313418452134605</v>
       </c>
       <c r="V2">
-        <v>68.84372056093359</v>
+        <v>31.38360830323112</v>
       </c>
       <c r="W2">
-        <v>91.56768767259001</v>
+        <v>166.8834311383806</v>
       </c>
       <c r="X2">
         <v>227.5956660424793</v>
       </c>
       <c r="Y2">
-        <v>68.89442738473389</v>
+        <v>125.3607991229451</v>
       </c>
       <c r="Z2">
-        <v>1.329101512974912</v>
+        <v>1.331225010576975</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>235.0565160042498</v>
+        <v>121.1635511036748</v>
       </c>
       <c r="H3">
-        <v>33.40153795656111</v>
+        <v>26.71045671481822</v>
       </c>
       <c r="I3">
-        <v>201.6549780476886</v>
+        <v>94.4530943888566</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>210.3592173711192</v>
+        <v>163.5390987576041</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.9586220207880199</v>
+        <v>0.577556652240416</v>
       </c>
       <c r="O3">
-        <v>237.2841633861715</v>
+        <v>174.853149656567</v>
       </c>
       <c r="P3">
-        <v>26.92494601505225</v>
+        <v>11.31405089896294</v>
       </c>
       <c r="Q3">
-        <v>2.176205206507685</v>
+        <v>2.737901081154629</v>
       </c>
       <c r="R3">
-        <v>151.7650096682241</v>
+        <v>132.562346569095</v>
       </c>
       <c r="S3">
-        <v>8.812799968234627</v>
+        <v>15.45451326125766</v>
       </c>
       <c r="T3">
-        <v>7.037296196059657</v>
+        <v>4.536184176755638</v>
       </c>
       <c r="U3">
-        <v>1.951224033339137</v>
+        <v>1.512086168942348</v>
       </c>
       <c r="V3">
-        <v>136.4810944363572</v>
+        <v>54.0645822242467</v>
       </c>
       <c r="W3">
-        <v>42.81933889536938</v>
+        <v>150.0212225542014</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>34.11509957193883</v>
+        <v>80.93521818545392</v>
       </c>
       <c r="Z3">
-        <v>1.255143307000346</v>
+        <v>1.853596319595318</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>191.5827122987002</v>
+        <v>103.021043268369</v>
       </c>
       <c r="H4">
-        <v>49.49291090878478</v>
+        <v>26.88253448510638</v>
       </c>
       <c r="I4">
-        <v>142.0898013899154</v>
+        <v>76.13850878326258</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>215.7323646952256</v>
+        <v>133.9311100078433</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.6586392430762616</v>
+        <v>0.5684900900082419</v>
       </c>
       <c r="O4">
-        <v>241.994526859706</v>
+        <v>144.2244245602563</v>
       </c>
       <c r="P4">
-        <v>26.26216216448037</v>
+        <v>10.29331455241298</v>
       </c>
       <c r="Q4">
-        <v>2.220785907329287</v>
+        <v>2.639875978344319</v>
       </c>
       <c r="R4">
-        <v>157.4097250643512</v>
+        <v>106.7580361833863</v>
       </c>
       <c r="S4">
-        <v>9.214569818893438</v>
+        <v>14.01146577478747</v>
       </c>
       <c r="T4">
-        <v>3.870912192895389</v>
+        <v>3.832266757639436</v>
       </c>
       <c r="U4">
-        <v>1.353490188025244</v>
+        <v>1.343456470848422</v>
       </c>
       <c r="V4">
-        <v>75.10163209806768</v>
+        <v>40.02299387644054</v>
       </c>
       <c r="W4">
-        <v>118.4768617440874</v>
+        <v>184.4281543507402</v>
       </c>
       <c r="X4">
         <v>260.5666631340028</v>
       </c>
       <c r="Y4">
-        <v>44.83429843877718</v>
+        <v>126.6355531261595</v>
       </c>
       <c r="Z4">
-        <v>2.642549696765562</v>
+        <v>1.456369477590589</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>213.1806868816689</v>
+        <v>121.2831344981698</v>
       </c>
       <c r="H5">
-        <v>69.30985430052432</v>
+        <v>43.51539264072704</v>
       </c>
       <c r="I5">
-        <v>143.8708325811446</v>
+        <v>77.76774185744279</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>177.000393655371</v>
+        <v>130.0276989303075</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.8128277548425606</v>
+        <v>0.5980859655074331</v>
       </c>
       <c r="O5">
-        <v>227.9519622438171</v>
+        <v>147.6727388400209</v>
       </c>
       <c r="P5">
-        <v>50.95156858844609</v>
+        <v>17.64503990971339</v>
       </c>
       <c r="Q5">
-        <v>1.498259368828515</v>
+        <v>2.124543882405392</v>
       </c>
       <c r="R5">
-        <v>100.661728661223</v>
+        <v>92.54003733532693</v>
       </c>
       <c r="S5">
-        <v>4.473894888007591</v>
+        <v>8.369079333095119</v>
       </c>
       <c r="T5">
-        <v>3.075763021479274</v>
+        <v>2.787131797235772</v>
       </c>
       <c r="U5">
-        <v>1.123553007544002</v>
+        <v>1.025013037383745</v>
       </c>
       <c r="V5">
-        <v>65.99753732935395</v>
+        <v>33.16389707382488</v>
       </c>
       <c r="W5">
-        <v>104.6026238845697</v>
+        <v>170.7057146082715</v>
       </c>
       <c r="X5">
         <v>248.4734564657143</v>
       </c>
       <c r="Y5">
-        <v>71.47306281034332</v>
+        <v>118.4457575354068</v>
       </c>
       <c r="Z5">
-        <v>1.463525134806899</v>
+        <v>1.441214258410587</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>194.9019579133822</v>
+        <v>88.42215084459617</v>
       </c>
       <c r="H6">
-        <v>67.59436813547029</v>
+        <v>36.54212412624425</v>
       </c>
       <c r="I6">
-        <v>127.3075897779119</v>
+        <v>51.88002671835193</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>225.794493287082</v>
+        <v>162.2460191555534</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.5638206137119967</v>
+        <v>0.319761476974125</v>
       </c>
       <c r="O6">
-        <v>277.4208822277863</v>
+        <v>176.5166618065734</v>
       </c>
       <c r="P6">
-        <v>51.62638894070429</v>
+        <v>14.27064265101997</v>
       </c>
       <c r="Q6">
-        <v>1.681502828106406</v>
+        <v>2.515210807503515</v>
       </c>
       <c r="R6">
-        <v>138.9845742783665</v>
+        <v>126.3523445296873</v>
       </c>
       <c r="S6">
-        <v>5.373625541511712</v>
+        <v>12.36921602784</v>
       </c>
       <c r="T6">
-        <v>2.883405279013282</v>
+        <v>2.419732102576164</v>
       </c>
       <c r="U6">
-        <v>1.058971984223317</v>
+        <v>0.883656832625933</v>
       </c>
       <c r="V6">
-        <v>55.72704763117153</v>
+        <v>19.58932905553125</v>
       </c>
       <c r="W6">
-        <v>150.1132924498745</v>
+        <v>225.5408555094344</v>
       </c>
       <c r="X6">
         <v>277.4208822277864</v>
       </c>
       <c r="Y6">
-        <v>51.62638894070437</v>
+        <v>115.174863072233</v>
       </c>
       <c r="Z6">
-        <v>2.907685304550111</v>
+        <v>1.958247220732395</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>187.9609521380806</v>
+        <v>117.6572488170864</v>
       </c>
       <c r="H7">
-        <v>50.8823464814687</v>
+        <v>43.47842360904305</v>
       </c>
       <c r="I7">
-        <v>137.0786056566119</v>
+        <v>74.17882520804336</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>197.8570010061014</v>
+        <v>132.6018674780714</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.6928165541758351</v>
+        <v>0.5594101095168245</v>
       </c>
       <c r="O7">
-        <v>234.791175996588</v>
+        <v>153.3278522837234</v>
       </c>
       <c r="P7">
-        <v>36.93417499048663</v>
+        <v>20.72598480565198</v>
       </c>
       <c r="Q7">
-        <v>1.849559232376796</v>
+        <v>2.001190236544319</v>
       </c>
       <c r="R7">
-        <v>129.5450566622266</v>
+        <v>91.12522904223474</v>
       </c>
       <c r="S7">
-        <v>6.357016937756553</v>
+        <v>7.397856059506076</v>
       </c>
       <c r="T7">
-        <v>3.694030742205173</v>
+        <v>2.706106593814385</v>
       </c>
       <c r="U7">
-        <v>1.306718203941978</v>
+        <v>0.9955109206262707</v>
       </c>
       <c r="V7">
-        <v>70.58971724999368</v>
+        <v>30.89557969362594</v>
       </c>
       <c r="W7">
-        <v>104.0570514464183</v>
+        <v>166.9568318949869</v>
       </c>
       <c r="X7">
         <v>241.1356571030302</v>
       </c>
       <c r="Y7">
-        <v>43.27865609692881</v>
+        <v>108.5337896249588</v>
       </c>
       <c r="Z7">
-        <v>2.40435033872973</v>
+        <v>1.538293580938345</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>160.7177480001196</v>
+        <v>139.039161224935</v>
       </c>
       <c r="H8">
-        <v>42.63425403648088</v>
+        <v>43.50969461234226</v>
       </c>
       <c r="I8">
-        <v>118.0834939636387</v>
+        <v>95.52946661259276</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>199.500362233336</v>
+        <v>115.2330414369612</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.5918961381409827</v>
+        <v>0.8290110668028544</v>
       </c>
       <c r="O8">
-        <v>235.3983800173193</v>
+        <v>132.1127595603432</v>
       </c>
       <c r="P8">
-        <v>35.89801778398326</v>
+        <v>16.87971812338192</v>
       </c>
       <c r="Q8">
-        <v>1.880597233933922</v>
+        <v>2.057543006848717</v>
       </c>
       <c r="R8">
-        <v>131.9906492850663</v>
+        <v>80.50229545461923</v>
       </c>
       <c r="S8">
-        <v>6.557420006693175</v>
+        <v>7.826715979180927</v>
       </c>
       <c r="T8">
-        <v>3.769685939915781</v>
+        <v>3.195590372760148</v>
       </c>
       <c r="U8">
-        <v>1.326991692927733</v>
+        <v>1.161771850966358</v>
       </c>
       <c r="V8">
-        <v>61.50819302305794</v>
+        <v>44.98112816783093</v>
       </c>
       <c r="W8">
-        <v>129.7041427279032</v>
+        <v>152.2581700789492</v>
       </c>
       <c r="X8">
         <v>247.787636691542</v>
       </c>
       <c r="Y8">
-        <v>48.28727445820599</v>
+        <v>132.5545952545808</v>
       </c>
       <c r="Z8">
-        <v>2.686093679612542</v>
+        <v>1.148644977464013</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>233.0500228829388</v>
+        <v>118.6110037672634</v>
       </c>
       <c r="H9">
-        <v>37.66010080683984</v>
+        <v>23.51991106345942</v>
       </c>
       <c r="I9">
-        <v>195.389922076099</v>
+        <v>95.09109270380394</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>220.8345238080223</v>
+        <v>144.9837300489048</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.8847797831011105</v>
+        <v>0.6558742327275516</v>
       </c>
       <c r="O9">
-        <v>260.4563817149609</v>
+        <v>157.8288442455154</v>
       </c>
       <c r="P9">
-        <v>39.62185790693861</v>
+        <v>12.84511419661051</v>
       </c>
       <c r="Q9">
-        <v>1.883054473210701</v>
+        <v>2.508547660725902</v>
       </c>
       <c r="R9">
-        <v>146.2244070394428</v>
+        <v>112.7611488792405</v>
       </c>
       <c r="S9">
-        <v>6.573552969845707</v>
+        <v>12.28707209836735</v>
       </c>
       <c r="T9">
-        <v>6.188247452609374</v>
+        <v>5.043003923239219</v>
       </c>
       <c r="U9">
-        <v>1.822651921020742</v>
+        <v>1.618001921051696</v>
       </c>
       <c r="V9">
-        <v>126.7486669946776</v>
+        <v>57.03583142016157</v>
       </c>
       <c r="W9">
-        <v>76.3895551024435</v>
+        <v>176.6883844747385</v>
       </c>
       <c r="X9">
         <v>271.7794771785425</v>
       </c>
       <c r="Y9">
-        <v>50.94495337052018</v>
+        <v>126.7957471296376</v>
       </c>
       <c r="Z9">
-        <v>1.499452841714585</v>
+        <v>1.393488255517671</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>220.4639017410591</v>
+        <v>75.59125694744726</v>
       </c>
       <c r="H10">
-        <v>57.96878914063245</v>
+        <v>31.26254163862724</v>
       </c>
       <c r="I10">
-        <v>162.4951126004266</v>
+        <v>44.32871530882002</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>186.8082072627785</v>
+        <v>128.7740021841484</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.8698499652740029</v>
+        <v>0.344236527225654</v>
       </c>
       <c r="O10">
-        <v>232.9432385439307</v>
+        <v>151.9508549492832</v>
       </c>
       <c r="P10">
-        <v>46.1350312811522</v>
+        <v>23.17685276513485</v>
       </c>
       <c r="Q10">
-        <v>1.619222253422733</v>
+        <v>1.880403090892152</v>
       </c>
       <c r="R10">
-        <v>112.105337949983</v>
+        <v>85.19217660743647</v>
       </c>
       <c r="S10">
-        <v>5.049161820750652</v>
+        <v>6.556147052798483</v>
       </c>
       <c r="T10">
-        <v>3.803148297719537</v>
+        <v>2.417949820626501</v>
       </c>
       <c r="U10">
-        <v>1.335829223116036</v>
+        <v>0.8829199995481931</v>
       </c>
       <c r="V10">
-        <v>85.05871003771827</v>
+        <v>16.72639205936789</v>
       </c>
       <c r="W10">
-        <v>80.77733686630049</v>
+        <v>198.9437341579071</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>56.4642422039486</v>
+        <v>114.4984472825788</v>
       </c>
       <c r="Z10">
-        <v>1.430592773644833</v>
+        <v>1.737523423937094</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>194.877523392803</v>
+        <v>101.5108257438699</v>
       </c>
       <c r="H11">
-        <v>51.73395385031724</v>
+        <v>16.02361548872433</v>
       </c>
       <c r="I11">
-        <v>143.1435695424857</v>
+        <v>85.48721025514561</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>203.9711893049994</v>
+        <v>138.2555256463959</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.7017832765020663</v>
+        <v>0.6183276209428966</v>
       </c>
       <c r="O11">
-        <v>244.4068383480964</v>
+        <v>153.4762432689084</v>
       </c>
       <c r="P11">
-        <v>40.43564904309697</v>
+        <v>15.22071762251246</v>
       </c>
       <c r="Q11">
-        <v>1.799122409117561</v>
+        <v>2.31088828678183</v>
       </c>
       <c r="R11">
-        <v>131.2225069843506</v>
+        <v>103.0821475761181</v>
       </c>
       <c r="S11">
-        <v>6.044340677890533</v>
+        <v>10.08337760907585</v>
       </c>
       <c r="T11">
-        <v>3.766917254317069</v>
+        <v>6.335076238898904</v>
       </c>
       <c r="U11">
-        <v>1.326256962532113</v>
+        <v>1.846101848254579</v>
       </c>
       <c r="V11">
-        <v>74.53105304918745</v>
+        <v>55.90598408569092</v>
       </c>
       <c r="W11">
-        <v>139.6535186484344</v>
+        <v>197.3098779357745</v>
       </c>
       <c r="X11">
         <v>282.7970881909201</v>
       </c>
       <c r="Y11">
-        <v>78.82589888592071</v>
+        <v>144.5415625445242</v>
       </c>
       <c r="Z11">
-        <v>1.771670486758994</v>
+        <v>1.365073647069476</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>253.1552079219534</v>
+        <v>222.3995014954962</v>
       </c>
       <c r="H12">
-        <v>62.02751788852239</v>
+        <v>36.78285090750939</v>
       </c>
       <c r="I12">
-        <v>191.127690033431</v>
+        <v>185.6166505879868</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>231.1107490536695</v>
+        <v>194.8435224734777</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.8269961082123729</v>
+        <v>0.9526447080798033</v>
       </c>
       <c r="O12">
-        <v>256.1433965016357</v>
+        <v>222.4928700781229</v>
       </c>
       <c r="P12">
-        <v>25.03264744796624</v>
+        <v>27.64934760464516</v>
       </c>
       <c r="Q12">
-        <v>2.325556559398995</v>
+        <v>2.085292923578877</v>
       </c>
       <c r="R12">
-        <v>172.895911581929</v>
+        <v>137.1865335719386</v>
       </c>
       <c r="S12">
-        <v>10.23237342490699</v>
+        <v>8.046948277388775</v>
       </c>
       <c r="T12">
-        <v>4.081337066831065</v>
+        <v>6.046282330173931</v>
       </c>
       <c r="U12">
-        <v>1.406424647188666</v>
+        <v>1.799443592285508</v>
       </c>
       <c r="V12">
-        <v>103.8906600710772</v>
+        <v>119.4279852164758</v>
       </c>
       <c r="W12">
-        <v>68.4407794473511</v>
+        <v>73.9518188927953</v>
       </c>
       <c r="X12">
         <v>259.5684694807821</v>
       </c>
       <c r="Y12">
-        <v>28.45772042711263</v>
+        <v>64.72494700730437</v>
       </c>
       <c r="Z12">
-        <v>2.404998658365666</v>
+        <v>1.142555109152112</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>269.7099498172492</v>
+        <v>143.0397902623904</v>
       </c>
       <c r="H13">
-        <v>42.12165753407313</v>
+        <v>23.71743703169258</v>
       </c>
       <c r="I13">
-        <v>227.5882922831761</v>
+        <v>119.3223532306978</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>240.9618418689845</v>
+        <v>193.1999544516116</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.9444993054415647</v>
+        <v>0.6176106695748886</v>
       </c>
       <c r="O13">
-        <v>288.8188181601054</v>
+        <v>210.4187827336958</v>
       </c>
       <c r="P13">
-        <v>47.85697629112081</v>
+        <v>17.21882828208418</v>
       </c>
       <c r="Q13">
-        <v>1.797582662450368</v>
+        <v>2.50309629575628</v>
       </c>
       <c r="R13">
-        <v>154.9349710107675</v>
+        <v>150.0995691614632</v>
       </c>
       <c r="S13">
-        <v>6.035041085821622</v>
+        <v>12.22027302244671</v>
       </c>
       <c r="T13">
-        <v>6.403118148878042</v>
+        <v>6.030996944199853</v>
       </c>
       <c r="U13">
-        <v>1.856785082479193</v>
+        <v>1.796912327786555</v>
       </c>
       <c r="V13">
-        <v>149.3774269246118</v>
+        <v>76.70419824494806</v>
       </c>
       <c r="W13">
-        <v>61.23052587692925</v>
+        <v>169.4964649294075</v>
       </c>
       <c r="X13">
         <v>288.8188181601053</v>
       </c>
       <c r="Y13">
-        <v>47.85697629112076</v>
+        <v>95.61886370849373</v>
       </c>
       <c r="Z13">
-        <v>1.279448277393358</v>
+        <v>1.772625801600603</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>204.1812712134893</v>
+        <v>139.5600420948917</v>
       </c>
       <c r="H14">
-        <v>61.23016835833503</v>
+        <v>46.76797434573815</v>
       </c>
       <c r="I14">
-        <v>142.9511028551543</v>
+        <v>92.79206774915353</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>189.6092761153028</v>
+        <v>185.6148007616862</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.7539246274439899</v>
+        <v>0.4999173954252212</v>
       </c>
       <c r="O14">
-        <v>220.4883478052121</v>
+        <v>207.5260526465682</v>
       </c>
       <c r="P14">
-        <v>30.8790716899094</v>
+        <v>21.91125188488202</v>
       </c>
       <c r="Q14">
-        <v>1.965766186220335</v>
+        <v>2.248256597134516</v>
       </c>
       <c r="R14">
-        <v>128.9082411254052</v>
+        <v>136.352684160024</v>
       </c>
       <c r="S14">
-        <v>7.140381356647547</v>
+        <v>9.471209300905063</v>
       </c>
       <c r="T14">
-        <v>3.334651474720221</v>
+        <v>2.984094223606446</v>
       </c>
       <c r="U14">
-        <v>1.204368168575256</v>
+        <v>1.093296258118613</v>
       </c>
       <c r="V14">
-        <v>69.20743712787173</v>
+        <v>41.66081639717072</v>
       </c>
       <c r="W14">
-        <v>88.49346496234048</v>
+        <v>138.6525000683412</v>
       </c>
       <c r="X14">
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>41.83529170219197</v>
+        <v>45.82976705580859</v>
       </c>
       <c r="Z14">
-        <v>2.11528260857576</v>
+        <v>3.025380859987767</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>224.2202490435522</v>
+        <v>156.2849637390093</v>
       </c>
       <c r="H15">
-        <v>86.69040062991134</v>
+        <v>32.99180398466453</v>
       </c>
       <c r="I15">
-        <v>137.5298484136409</v>
+        <v>123.2931597543448</v>
       </c>
       <c r="J15">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>209.5180387248002</v>
+        <v>178.2967363485797</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.6564105374921196</v>
+        <v>0.6915054211272831</v>
       </c>
       <c r="O15">
-        <v>270.0607667565276</v>
+        <v>233.2871406344663</v>
       </c>
       <c r="P15">
-        <v>60.54272803172741</v>
+        <v>54.99040428588663</v>
       </c>
       <c r="Q15">
-        <v>1.495297631517904</v>
+        <v>1.445111355585566</v>
       </c>
       <c r="R15">
-        <v>118.9886408933256</v>
+        <v>98.82947866680372</v>
       </c>
       <c r="S15">
-        <v>4.460663989488586</v>
+        <v>4.242324523050285</v>
       </c>
       <c r="T15">
-        <v>2.586448411984707</v>
+        <v>4.737084513828184</v>
       </c>
       <c r="U15">
-        <v>0.9502856651570585</v>
+        <v>1.555421864995927</v>
       </c>
       <c r="V15">
-        <v>55.14920338831369</v>
+        <v>71.9769864709378</v>
       </c>
       <c r="W15">
-        <v>147.5877006059812</v>
+        <v>161.8243892652773</v>
       </c>
       <c r="X15">
         <v>285.1175490196221</v>
       </c>
       <c r="Y15">
-        <v>75.59951029482187</v>
+        <v>106.8208126710424</v>
       </c>
       <c r="Z15">
-        <v>1.952230907719122</v>
+        <v>1.514914418069632</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>278.6160537314234</v>
+        <v>112.7081076101222</v>
       </c>
       <c r="H16">
-        <v>66.05918418505868</v>
+        <v>13.80606938085148</v>
       </c>
       <c r="I16">
-        <v>212.5568695463647</v>
+        <v>98.90203822927069</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>241.9188592497576</v>
+        <v>207.5165539727843</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.8786287691895921</v>
+        <v>0.4765983066692676</v>
       </c>
       <c r="O16">
-        <v>291.7396124440075</v>
+        <v>239.5265615441263</v>
       </c>
       <c r="P16">
-        <v>49.82075319424995</v>
+        <v>32.01000757134194</v>
       </c>
       <c r="Q16">
-        <v>1.767430038197115</v>
+        <v>2.012615724340136</v>
       </c>
       <c r="R16">
-        <v>153.8641635286353</v>
+        <v>143.0927093984548</v>
       </c>
       <c r="S16">
-        <v>5.855784863519057</v>
+        <v>7.482864882499142</v>
       </c>
       <c r="T16">
-        <v>4.217673245114659</v>
+        <v>8.163663712022501</v>
       </c>
       <c r="U16">
-        <v>1.439283612274146</v>
+        <v>2.0996930525292</v>
       </c>
       <c r="V16">
-        <v>117.4789683086103</v>
+        <v>69.91353026756073</v>
       </c>
       <c r="W16">
-        <v>79.18274289764284</v>
+        <v>192.8375742147369</v>
       </c>
       <c r="X16">
         <v>291.7396124440075</v>
       </c>
       <c r="Y16">
-        <v>49.82075319424993</v>
+        <v>84.22305847122323</v>
       </c>
       <c r="Z16">
-        <v>1.589352585435857</v>
+        <v>2.289605456213922</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>227.7214218701423</v>
+        <v>217.4308850133415</v>
       </c>
       <c r="H17">
-        <v>78.849014424755</v>
+        <v>68.34759686573844</v>
       </c>
       <c r="I17">
-        <v>148.8724074453873</v>
+        <v>149.083288147603</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>209.8953522348191</v>
+        <v>173.1045271541616</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.7092696711018034</v>
+        <v>0.8612327510928354</v>
       </c>
       <c r="O17">
-        <v>249.5752437525121</v>
+        <v>203.0048409843269</v>
       </c>
       <c r="P17">
-        <v>39.67989151769307</v>
+        <v>29.90031383016527</v>
       </c>
       <c r="Q17">
-        <v>1.838915899408571</v>
+        <v>1.915360849637172</v>
       </c>
       <c r="R17">
-        <v>136.9273688361259</v>
+        <v>115.8346366519982</v>
       </c>
       <c r="S17">
-        <v>6.289715878916346</v>
+        <v>6.789388303326875</v>
       </c>
       <c r="T17">
-        <v>2.888069350409638</v>
+        <v>3.181251353145031</v>
       </c>
       <c r="U17">
-        <v>1.060588234042001</v>
+        <v>1.157274626666713</v>
       </c>
       <c r="V17">
-        <v>65.24607048068411</v>
+        <v>69.98634850123855</v>
       </c>
       <c r="W17">
-        <v>126.9926389001495</v>
+        <v>126.7817581979338</v>
       </c>
       <c r="X17">
         <v>275.8650463455368</v>
       </c>
       <c r="Y17">
-        <v>65.96969411071771</v>
+        <v>102.7605191913752</v>
       </c>
       <c r="Z17">
-        <v>1.925014821002751</v>
+        <v>1.233759416511149</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>264.6625492146725</v>
+        <v>118.7206642030551</v>
       </c>
       <c r="H18">
-        <v>47.04639051896195</v>
+        <v>35.23003960618502</v>
       </c>
       <c r="I18">
-        <v>217.6161586957105</v>
+        <v>83.49062459687012</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>231.1242627171167</v>
+        <v>201.1861230087103</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9415547988661868</v>
+        <v>0.414991965391447</v>
       </c>
       <c r="O18">
-        <v>284.2735021787552</v>
+        <v>241.334747636913</v>
       </c>
       <c r="P18">
-        <v>53.14923946163844</v>
+        <v>40.14862462820268</v>
       </c>
       <c r="Q18">
-        <v>1.676833015177241</v>
+        <v>1.793596780103907</v>
       </c>
       <c r="R18">
-        <v>142.0018632562803</v>
+        <v>129.1756791499656</v>
       </c>
       <c r="S18">
-        <v>5.348590216120316</v>
+        <v>6.011033998593958</v>
       </c>
       <c r="T18">
-        <v>5.625565453485763</v>
+        <v>3.369870301883295</v>
       </c>
       <c r="U18">
-        <v>1.727321468102314</v>
+        <v>1.214874257535619</v>
       </c>
       <c r="V18">
-        <v>136.3519183555824</v>
+        <v>40.69055638735566</v>
       </c>
       <c r="W18">
-        <v>69.90559046155002</v>
+        <v>204.0311245603904</v>
       </c>
       <c r="X18">
         <v>287.5217491572606</v>
       </c>
       <c r="Y18">
-        <v>56.39748644014384</v>
+        <v>86.33562614855023</v>
       </c>
       <c r="Z18">
-        <v>1.239516064882478</v>
+        <v>2.363232117055962</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>179.1705281376597</v>
+        <v>202.5776444247777</v>
       </c>
       <c r="H19">
-        <v>38.74498271199067</v>
+        <v>57.7869537205347</v>
       </c>
       <c r="I19">
-        <v>140.4255454256691</v>
+        <v>144.790690704243</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>205.7752082365883</v>
+        <v>176.043506655738</v>
       </c>
       <c r="L19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.6824220790690002</v>
+        <v>0.8224710666971009</v>
       </c>
       <c r="O19">
-        <v>234.2778426632558</v>
+        <v>220.4631965604297</v>
       </c>
       <c r="P19">
-        <v>28.5026344266675</v>
+        <v>44.41968990469165</v>
       </c>
       <c r="Q19">
-        <v>2.10651125378387</v>
+        <v>1.60204793447511</v>
       </c>
       <c r="R19">
-        <v>145.7340880543256</v>
+        <v>104.8810341939019</v>
       </c>
       <c r="S19">
-        <v>8.219515401848675</v>
+        <v>4.963186303944553</v>
       </c>
       <c r="T19">
-        <v>4.624354318842182</v>
+        <v>3.505594799207964</v>
       </c>
       <c r="U19">
-        <v>1.531336754481635</v>
+        <v>1.25436020629109</v>
       </c>
       <c r="V19">
-        <v>81.09392934704221</v>
+        <v>72.30503551441949</v>
       </c>
       <c r="W19">
-        <v>118.4586718645044</v>
+        <v>114.0935265859304</v>
       </c>
       <c r="X19">
         <v>258.8842172901735</v>
       </c>
       <c r="Y19">
-        <v>53.10900905358514</v>
+        <v>82.84071063443542</v>
       </c>
       <c r="Z19">
-        <v>2.230481682401261</v>
+        <v>1.377263977000503</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>285.083666752181</v>
+        <v>186.5202538034925</v>
       </c>
       <c r="H20">
-        <v>71.80307749891385</v>
+        <v>85.48327589382879</v>
       </c>
       <c r="I20">
-        <v>213.2805892532672</v>
+        <v>101.0369779096637</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>245.2286736060119</v>
+        <v>211.7810417103181</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.8697212528903819</v>
+        <v>0.4770822595530803</v>
       </c>
       <c r="O20">
-        <v>297.1901333622746</v>
+        <v>247.532897028719</v>
       </c>
       <c r="P20">
-        <v>51.96145975626276</v>
+        <v>35.75185531840098</v>
       </c>
       <c r="Q20">
-        <v>1.743869828391818</v>
+        <v>1.934941325652157</v>
       </c>
       <c r="R20">
-        <v>154.6146516978695</v>
+        <v>142.6032993860072</v>
       </c>
       <c r="S20">
-        <v>5.719433879577549</v>
+        <v>6.923637803527286</v>
       </c>
       <c r="T20">
-        <v>3.970354428840372</v>
+        <v>2.1819502335773</v>
       </c>
       <c r="U20">
-        <v>1.378855367500152</v>
+        <v>0.7802190794410175</v>
       </c>
       <c r="V20">
-        <v>114.2745304408604</v>
+        <v>34.34129508417809</v>
       </c>
       <c r="W20">
-        <v>86.3939560208911</v>
+        <v>198.6375673644946</v>
       </c>
       <c r="X20">
         <v>299.6745452741583</v>
       </c>
       <c r="Y20">
-        <v>54.4458716681464</v>
+        <v>87.89350356384017</v>
       </c>
       <c r="Z20">
-        <v>1.586786167139941</v>
+        <v>2.259980081693035</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>225.0807247614021</v>
+        <v>180.2848327986311</v>
       </c>
       <c r="H21">
-        <v>48.00126302766252</v>
+        <v>55.61421389744112</v>
       </c>
       <c r="I21">
-        <v>177.0794617337395</v>
+        <v>124.67061890119</v>
       </c>
       <c r="J21">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>198.1909851787077</v>
+        <v>179.1325942669112</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.8934788914544622</v>
+        <v>0.6959683658431709</v>
       </c>
       <c r="O21">
-        <v>236.5987075689761</v>
+        <v>201.6573566376509</v>
       </c>
       <c r="P21">
-        <v>38.4077223902684</v>
+        <v>22.52476237073967</v>
       </c>
       <c r="Q21">
-        <v>1.818106945726234</v>
+        <v>2.19195474900389</v>
       </c>
       <c r="R21">
-        <v>128.3616383314358</v>
+        <v>129.7593344181843</v>
       </c>
       <c r="S21">
-        <v>6.160185838796955</v>
+        <v>8.952696295682559</v>
       </c>
       <c r="T21">
-        <v>4.689058382311543</v>
+        <v>3.241704236458267</v>
       </c>
       <c r="U21">
-        <v>1.545231790938776</v>
+        <v>1.176099190422177</v>
       </c>
       <c r="V21">
-        <v>102.9063840981814</v>
+        <v>59.26278696044372</v>
       </c>
       <c r="W21">
-        <v>69.95026097923187</v>
+        <v>122.3591038117814</v>
       </c>
       <c r="X21">
         <v>247.0297227129714</v>
       </c>
       <c r="Y21">
-        <v>48.83873753426369</v>
+        <v>67.89712844606018</v>
       </c>
       <c r="Z21">
-        <v>1.432270048548184</v>
+        <v>1.802124870553071</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>223.8148696934199</v>
+        <v>112.2929694771994</v>
       </c>
       <c r="H22">
-        <v>32.6864560098897</v>
+        <v>5.668828451148675</v>
       </c>
       <c r="I22">
-        <v>191.1284136835302</v>
+        <v>106.6241410260507</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>216.3096349230154</v>
+        <v>170.4973195277622</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.8835871492804876</v>
+        <v>0.6253713625608586</v>
       </c>
       <c r="O22">
-        <v>245.3635115355304</v>
+        <v>188.084366826073</v>
       </c>
       <c r="P22">
-        <v>29.05387661251494</v>
+        <v>17.5870472983108</v>
       </c>
       <c r="Q22">
-        <v>2.133588910863423</v>
+        <v>2.369727939739463</v>
       </c>
       <c r="R22">
-        <v>154.3206059649594</v>
+        <v>128.8208021674357</v>
       </c>
       <c r="S22">
-        <v>8.445121276168708</v>
+        <v>10.69448234463656</v>
       </c>
       <c r="T22">
-        <v>6.847327517724829</v>
+        <v>19.8088494730239</v>
       </c>
       <c r="U22">
-        <v>1.923858432750563</v>
+        <v>2.986128780933196</v>
       </c>
       <c r="V22">
-        <v>128.2442996521736</v>
+        <v>89.69628923390269</v>
       </c>
       <c r="W22">
-        <v>62.40527075321359</v>
+        <v>146.9095434106931</v>
       </c>
       <c r="X22">
         <v>253.5336844367438</v>
       </c>
       <c r="Y22">
-        <v>37.22404951372837</v>
+        <v>83.03636490898162</v>
       </c>
       <c r="Z22">
-        <v>1.676477212136694</v>
+        <v>1.769219348314736</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>195.0160756195804</v>
+        <v>120.8776709036331</v>
       </c>
       <c r="H23">
-        <v>51.84642914886538</v>
+        <v>12.37610187558061</v>
       </c>
       <c r="I23">
-        <v>143.169646470715</v>
+        <v>108.5015690280524</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>215.4565053645818</v>
+        <v>158.6738760476161</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.664494424192263</v>
+        <v>0.6838023481287645</v>
       </c>
       <c r="O23">
-        <v>244.5264180098816</v>
+        <v>171.3944031715113</v>
       </c>
       <c r="P23">
-        <v>29.06991264529984</v>
+        <v>12.72052712389515</v>
       </c>
       <c r="Q23">
-        <v>2.129619642609587</v>
+        <v>2.600750354410952</v>
       </c>
       <c r="R23">
-        <v>153.5486483862064</v>
+        <v>125.5909606218517</v>
       </c>
       <c r="S23">
-        <v>8.411666763278623</v>
+        <v>13.47384440142829</v>
       </c>
       <c r="T23">
-        <v>3.761417687216907</v>
+        <v>9.767022938146443</v>
       </c>
       <c r="U23">
-        <v>1.32479593081098</v>
+        <v>2.279011704998104</v>
       </c>
       <c r="V23">
-        <v>74.48370810721842</v>
+        <v>80.29628799135524</v>
       </c>
       <c r="W23">
-        <v>101.3567715391666</v>
+        <v>136.0248489818292</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>29.06991264529984</v>
+        <v>85.85254196226552</v>
       </c>
       <c r="Z23">
-        <v>3.486655525108861</v>
+        <v>1.584400949265029</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>184.6551765997532</v>
+        <v>109.0761021393109</v>
       </c>
       <c r="H24">
-        <v>56.38540437035817</v>
+        <v>26.9739144905009</v>
       </c>
       <c r="I24">
-        <v>128.269772229395</v>
+        <v>82.10218764881003</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>212.8952603878736</v>
+        <v>142.1850356280616</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.6025017747962096</v>
+        <v>0.577431987031175</v>
       </c>
       <c r="O24">
-        <v>246.7131148945972</v>
+        <v>156.798590493367</v>
       </c>
       <c r="P24">
-        <v>33.81785450672358</v>
+        <v>14.6135548653054</v>
       </c>
       <c r="Q24">
-        <v>1.987237280566636</v>
+        <v>2.373012605240313</v>
       </c>
       <c r="R24">
-        <v>145.6911591633341</v>
+        <v>107.506885725321</v>
       </c>
       <c r="S24">
-        <v>7.295350887666347</v>
+        <v>10.72966789659294</v>
       </c>
       <c r="T24">
-        <v>3.274875451577439</v>
+        <v>4.04376243491552</v>
       </c>
       <c r="U24">
-        <v>1.186279838311364</v>
+        <v>1.397175554357374</v>
       </c>
       <c r="V24">
-        <v>61.38090384980568</v>
+        <v>44.41489371735605</v>
       </c>
       <c r="W24">
-        <v>124.973308928104</v>
+        <v>171.140893508689</v>
       </c>
       <c r="X24">
         <v>253.243081157499</v>
       </c>
       <c r="Y24">
-        <v>40.34782076962537</v>
+        <v>111.0580455294374</v>
       </c>
       <c r="Z24">
-        <v>3.097399228614258</v>
+        <v>1.541004010045592</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>225.2311852589585</v>
+        <v>110.7945296529557</v>
       </c>
       <c r="H25">
-        <v>48.68006782867945</v>
+        <v>28.08598240566123</v>
       </c>
       <c r="I25">
-        <v>176.5511174302791</v>
+        <v>82.70854724729449</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>247.3100674967809</v>
+        <v>168.0525081332845</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.7138856869730025</v>
+        <v>0.4921589577330041</v>
       </c>
       <c r="O25">
-        <v>274.8766825897672</v>
+        <v>183.6070680117969</v>
       </c>
       <c r="P25">
-        <v>27.56661509298624</v>
+        <v>15.55455987851235</v>
       </c>
       <c r="Q25">
-        <v>2.299717127658169</v>
+        <v>2.468444138827109</v>
       </c>
       <c r="R25">
-        <v>183.9146506158803</v>
+        <v>129.6569459691354</v>
       </c>
       <c r="S25">
-        <v>9.971361433479148</v>
+        <v>11.80406706752523</v>
       </c>
       <c r="T25">
-        <v>4.626763998185424</v>
+        <v>3.944833691508085</v>
       </c>
       <c r="U25">
-        <v>1.53185770326105</v>
+        <v>1.37240679663053</v>
       </c>
       <c r="V25">
-        <v>101.980180531646</v>
+        <v>44.16315410371954</v>
       </c>
       <c r="W25">
-        <v>105.0274799410783</v>
+        <v>198.8700501240629</v>
       </c>
       <c r="X25">
         <v>281.5785973713574</v>
       </c>
       <c r="Y25">
-        <v>34.26852987457644</v>
+        <v>113.5260892380729</v>
       </c>
       <c r="Z25">
-        <v>3.064837631654498</v>
+        <v>1.751756371233904</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>210.0889335895877</v>
+        <v>90.80741510980315</v>
       </c>
       <c r="H26">
-        <v>18.66345745128729</v>
+        <v>35.27911728950696</v>
       </c>
       <c r="I26">
-        <v>191.4254761383004</v>
+        <v>55.52829782029618</v>
       </c>
       <c r="J26">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>195.3623692661556</v>
+        <v>152.3018660414955</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.9798482525440111</v>
+        <v>0.3645936800614589</v>
       </c>
       <c r="O26">
-        <v>214.5516408570521</v>
+        <v>171.65292790485</v>
       </c>
       <c r="P26">
-        <v>19.18927159089645</v>
+        <v>19.35106186335457</v>
       </c>
       <c r="Q26">
-        <v>2.414199107753394</v>
+        <v>2.18272728254142</v>
       </c>
       <c r="R26">
-        <v>149.0356469129759</v>
+        <v>110.0637753662046</v>
       </c>
       <c r="S26">
-        <v>11.18081214499237</v>
+        <v>8.87046556498856</v>
       </c>
       <c r="T26">
-        <v>11.25669957658874</v>
+        <v>2.573970725078541</v>
       </c>
       <c r="U26">
-        <v>2.420963469319</v>
+        <v>0.9454497357908982</v>
       </c>
       <c r="V26">
-        <v>146.2419274375444</v>
+        <v>22.17366569999572</v>
       </c>
       <c r="W26">
-        <v>44.74123570895611</v>
+        <v>180.6384140269603</v>
       </c>
       <c r="X26">
         <v>236.1667118472565</v>
       </c>
       <c r="Y26">
-        <v>40.80434258110088</v>
+        <v>83.86484580576104</v>
       </c>
       <c r="Z26">
-        <v>1.096482209461663</v>
+        <v>2.153922925528726</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>138.8693591138181</v>
+        <v>136.2085956766076</v>
       </c>
       <c r="H27">
-        <v>38.78859763668505</v>
+        <v>8.497914155045454</v>
       </c>
       <c r="I27">
-        <v>100.0807614771331</v>
+        <v>127.7106815215622</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>230.4775573175044</v>
+        <v>148.3135339066694</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.4342321336704487</v>
+        <v>0.8610858237787515</v>
       </c>
       <c r="O27">
-        <v>254.2160809529764</v>
+        <v>160.0998835040172</v>
       </c>
       <c r="P27">
-        <v>23.73852363547199</v>
+        <v>11.78634959734787</v>
       </c>
       <c r="Q27">
-        <v>2.371085419435175</v>
+        <v>2.608855844295287</v>
       </c>
       <c r="R27">
-        <v>174.1914900465195</v>
+        <v>117.564646876721</v>
       </c>
       <c r="S27">
-        <v>10.70900974537046</v>
+        <v>13.58350031803252</v>
       </c>
       <c r="T27">
-        <v>3.580159314202167</v>
+        <v>16.02847395154453</v>
       </c>
       <c r="U27">
-        <v>1.275407300596251</v>
+        <v>2.77436676256035</v>
       </c>
       <c r="V27">
-        <v>50.6095008714145</v>
+        <v>104.134350938713</v>
       </c>
       <c r="W27">
-        <v>166.9194937224543</v>
+        <v>139.2895736780251</v>
       </c>
       <c r="X27">
         <v>267.0002551995873</v>
       </c>
       <c r="Y27">
-        <v>36.52269788208292</v>
+        <v>118.686721292918</v>
       </c>
       <c r="Z27">
-        <v>4.570294731823209</v>
+        <v>1.173590205885454</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>216.0410751177144</v>
+        <v>67.9534732891578</v>
       </c>
       <c r="H28">
-        <v>50.63297062008282</v>
+        <v>29.61795061998165</v>
       </c>
       <c r="I28">
-        <v>165.4081044976316</v>
+        <v>38.33552266917615</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>225.3805634216142</v>
+        <v>177.3561599392056</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.7339058079653766</v>
+        <v>0.2161499362769066</v>
       </c>
       <c r="O28">
-        <v>255.9071619061879</v>
+        <v>186.3749865343315</v>
       </c>
       <c r="P28">
-        <v>30.52659848457366</v>
+        <v>9.018826595125844</v>
       </c>
       <c r="Q28">
-        <v>2.126216344869934</v>
+        <v>3.028446464454472</v>
       </c>
       <c r="R28">
-        <v>160.474410770432</v>
+        <v>150.0431264236688</v>
       </c>
       <c r="S28">
-        <v>8.383088015374797</v>
+        <v>20.66510366604192</v>
       </c>
       <c r="T28">
-        <v>4.266806242492613</v>
+        <v>2.294334073314081</v>
       </c>
       <c r="U28">
-        <v>1.450865594806607</v>
+        <v>0.8304426372734529</v>
       </c>
       <c r="V28">
-        <v>91.9464694620997</v>
+        <v>13.73951364568369</v>
       </c>
       <c r="W28">
-        <v>103.5079364932659</v>
+        <v>230.5805183217213</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>43.53547756928327</v>
+        <v>91.55988105169189</v>
       </c>
       <c r="Z28">
-        <v>2.37755371647276</v>
+        <v>2.51835755653224</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>190.7708169913903</v>
+        <v>111.2013376968187</v>
       </c>
       <c r="H29">
-        <v>41.87262142640218</v>
+        <v>24.69041576228701</v>
       </c>
       <c r="I29">
-        <v>148.8981955649881</v>
+        <v>86.51092193453169</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>185.9965270966151</v>
+        <v>134.1859022575272</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.800542880500363</v>
+        <v>0.6447094700641612</v>
       </c>
       <c r="O29">
-        <v>206.1173068924407</v>
+        <v>143.269529198974</v>
       </c>
       <c r="P29">
-        <v>20.12077979582555</v>
+        <v>9.083626941446749</v>
       </c>
       <c r="Q29">
-        <v>2.326692355919816</v>
+        <v>2.758254120041819</v>
       </c>
       <c r="R29">
-        <v>139.181662550522</v>
+        <v>109.1309508213589</v>
       </c>
       <c r="S29">
-        <v>10.24400192159569</v>
+        <v>15.77228238483288</v>
       </c>
       <c r="T29">
-        <v>4.555979790438974</v>
+        <v>4.503826050052647</v>
       </c>
       <c r="U29">
-        <v>1.516440609762757</v>
+        <v>1.504927268877682</v>
       </c>
       <c r="V29">
-        <v>85.40085199676972</v>
+        <v>49.35364197393862</v>
       </c>
       <c r="W29">
-        <v>76.91977691102252</v>
+        <v>139.3070505414789</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>39.8214453793955</v>
+        <v>91.63207021848342</v>
       </c>
       <c r="Z29">
-        <v>1.931616900847666</v>
+        <v>1.520287058988424</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>210.1233530147081</v>
+        <v>113.7723848405017</v>
       </c>
       <c r="H30">
-        <v>58.70320120158978</v>
+        <v>19.35076738924162</v>
       </c>
       <c r="I30">
-        <v>151.4201518131183</v>
+        <v>94.42161745126009</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>226.658506188999</v>
+        <v>161.9992293439387</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.6680541328850761</v>
+        <v>0.5828522631474662</v>
       </c>
       <c r="O30">
-        <v>254.1899177389817</v>
+        <v>174.5239583677593</v>
       </c>
       <c r="P30">
-        <v>27.53141154998277</v>
+        <v>12.52472902382059</v>
       </c>
       <c r="Q30">
-        <v>2.222754104262208</v>
+        <v>2.634357017542333</v>
       </c>
       <c r="R30">
-        <v>165.4629481701428</v>
+        <v>129.0046215472208</v>
       </c>
       <c r="S30">
-        <v>9.232723766360639</v>
+        <v>13.93435003949664</v>
       </c>
       <c r="T30">
-        <v>3.579418987614216</v>
+        <v>5.87947664048483</v>
       </c>
       <c r="U30">
-        <v>1.275200493279009</v>
+        <v>1.771467751228935</v>
       </c>
       <c r="V30">
-        <v>76.56180068379413</v>
+        <v>60.14235705968603</v>
       </c>
       <c r="W30">
-        <v>108.7298117514192</v>
+        <v>165.7283461132775</v>
       </c>
       <c r="X30">
         <v>260.1499635645376</v>
       </c>
       <c r="Y30">
-        <v>33.49145737553863</v>
+        <v>98.15073422059888</v>
       </c>
       <c r="Z30">
-        <v>3.246493890434071</v>
+        <v>1.688508470459267</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>255.3447757145421</v>
+        <v>146.9255830844818</v>
       </c>
       <c r="H31">
-        <v>55.08313203581942</v>
+        <v>44.71489195055983</v>
       </c>
       <c r="I31">
-        <v>200.2616436787227</v>
+        <v>102.210691133922</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>210.1333520777885</v>
+        <v>145.6643609319224</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.9530216964539189</v>
+        <v>0.701686332058197</v>
       </c>
       <c r="O31">
-        <v>276.3304454643041</v>
+        <v>175.9847197599682</v>
       </c>
       <c r="P31">
-        <v>66.19709338651558</v>
+        <v>30.32035882804579</v>
       </c>
       <c r="Q31">
-        <v>1.428960860309638</v>
+        <v>1.75857777632126</v>
       </c>
       <c r="R31">
-        <v>115.5402965621958</v>
+        <v>92.34365172683495</v>
       </c>
       <c r="S31">
-        <v>4.174359195060865</v>
+        <v>5.804176683990477</v>
       </c>
       <c r="T31">
-        <v>4.635625576782683</v>
+        <v>3.285831110738987</v>
       </c>
       <c r="U31">
-        <v>1.533771157932608</v>
+        <v>1.189619621684057</v>
       </c>
       <c r="V31">
-        <v>115.7767244735892</v>
+        <v>49.01697828805349</v>
       </c>
       <c r="W31">
-        <v>76.06880178558148</v>
+        <v>174.1197543303822</v>
       </c>
       <c r="X31">
         <v>276.3304454643041</v>
       </c>
       <c r="Y31">
-        <v>66.1970933865156</v>
+        <v>130.6660845323817</v>
       </c>
       <c r="Z31">
-        <v>1.149126009829863</v>
+        <v>1.332555076962084</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_08/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>83.04222924307115</v>
+        <v>131.0473192722257</v>
       </c>
       <c r="H2">
-        <v>22.3299943389724</v>
+        <v>44.41064800729216</v>
       </c>
       <c r="I2">
-        <v>60.71223490409874</v>
+        <v>86.63667126493351</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>102.2348669195342</v>
+        <v>156.0482146727041</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.5938505789016519</v>
+        <v>0.5551916851253024</v>
       </c>
       <c r="O2">
-        <v>118.6012307603794</v>
+        <v>194.7146774925678</v>
       </c>
       <c r="P2">
-        <v>16.36636384084513</v>
+        <v>38.66646281986375</v>
       </c>
       <c r="Q2">
-        <v>1.980538620550845</v>
+        <v>1.616562664182392</v>
       </c>
       <c r="R2">
-        <v>69.82065125475359</v>
+        <v>93.54145452211576</v>
       </c>
       <c r="S2">
-        <v>7.246645126169637</v>
+        <v>5.035750965887133</v>
       </c>
       <c r="T2">
-        <v>3.718864769174529</v>
+        <v>2.950808536968609</v>
       </c>
       <c r="U2">
-        <v>1.313418452134605</v>
+        <v>1.082079213126919</v>
       </c>
       <c r="V2">
-        <v>31.38360830323112</v>
+        <v>38.58083221474624</v>
       </c>
       <c r="W2">
-        <v>166.8834311383806</v>
+        <v>140.9589947775458</v>
       </c>
       <c r="X2">
         <v>227.5956660424793</v>
       </c>
       <c r="Y2">
-        <v>125.3607991229451</v>
+        <v>71.54745136977522</v>
       </c>
       <c r="Z2">
-        <v>1.331225010576975</v>
+        <v>1.970146973496432</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>121.1635511036748</v>
+        <v>200.1518513437503</v>
       </c>
       <c r="H3">
-        <v>26.71045671481822</v>
+        <v>38.58355023645811</v>
       </c>
       <c r="I3">
-        <v>94.4530943888566</v>
+        <v>161.5683011072922</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>163.5390987576041</v>
+        <v>210.3592173711192</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.577556652240416</v>
+        <v>0.7680590521605274</v>
       </c>
       <c r="O3">
-        <v>174.853149656567</v>
+        <v>237.2841633861714</v>
       </c>
       <c r="P3">
-        <v>11.31405089896294</v>
+        <v>26.92494601505225</v>
       </c>
       <c r="Q3">
-        <v>2.737901081154629</v>
+        <v>2.176205206507685</v>
       </c>
       <c r="R3">
-        <v>132.562346569095</v>
+        <v>151.7650096682241</v>
       </c>
       <c r="S3">
-        <v>15.45451326125766</v>
+        <v>8.812799968234625</v>
       </c>
       <c r="T3">
-        <v>4.536184176755638</v>
+        <v>5.187491822736004</v>
       </c>
       <c r="U3">
-        <v>1.512086168942348</v>
+        <v>1.646250309215527</v>
       </c>
       <c r="V3">
-        <v>54.0645822242467</v>
+        <v>98.05011959989019</v>
       </c>
       <c r="W3">
-        <v>150.0212225542014</v>
+        <v>82.90601583576586</v>
       </c>
       <c r="X3">
         <v>244.474316943058</v>
       </c>
       <c r="Y3">
-        <v>80.93521818545392</v>
+        <v>34.11509957193883</v>
       </c>
       <c r="Z3">
-        <v>1.853596319595318</v>
+        <v>2.430185368825941</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>103.021043268369</v>
+        <v>159.3146915879197</v>
       </c>
       <c r="H4">
-        <v>26.88253448510638</v>
+        <v>24.45274070043779</v>
       </c>
       <c r="I4">
-        <v>76.13850878326258</v>
+        <v>134.8619508874819</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>133.9311100078433</v>
+        <v>198.7160895027938</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.5684900900082419</v>
+        <v>0.6786664895878292</v>
       </c>
       <c r="O4">
-        <v>144.2244245602563</v>
+        <v>226.2363490908683</v>
       </c>
       <c r="P4">
-        <v>10.29331455241298</v>
+        <v>27.52025958807458</v>
       </c>
       <c r="Q4">
-        <v>2.639875978344319</v>
+        <v>2.106657799522948</v>
       </c>
       <c r="R4">
-        <v>106.7580361833863</v>
+        <v>140.7403199966803</v>
       </c>
       <c r="S4">
-        <v>14.01146577478747</v>
+        <v>8.220720025072143</v>
       </c>
       <c r="T4">
-        <v>3.832266757639436</v>
+        <v>6.515207989960301</v>
       </c>
       <c r="U4">
-        <v>1.343456470848422</v>
+        <v>1.874139134850078</v>
       </c>
       <c r="V4">
-        <v>40.02299387644054</v>
+        <v>89.03411258645014</v>
       </c>
       <c r="W4">
-        <v>184.4281543507402</v>
+        <v>125.7047122465209</v>
       </c>
       <c r="X4">
         <v>260.5666631340028</v>
       </c>
       <c r="Y4">
-        <v>126.6355531261595</v>
+        <v>61.85057363120902</v>
       </c>
       <c r="Z4">
-        <v>1.456369477590589</v>
+        <v>2.032393636250641</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>121.2831344981698</v>
+        <v>126.2680733133993</v>
       </c>
       <c r="H5">
-        <v>43.51539264072704</v>
+        <v>32.52764022248513</v>
       </c>
       <c r="I5">
-        <v>77.76774185744279</v>
+        <v>93.74043309091417</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>130.0276989303075</v>
+        <v>172.71221296931</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.5980859655074331</v>
+        <v>0.5427550922966363</v>
       </c>
       <c r="O5">
-        <v>147.6727388400209</v>
+        <v>214.6958006485756</v>
       </c>
       <c r="P5">
-        <v>17.64503990971339</v>
+        <v>41.98358767926555</v>
       </c>
       <c r="Q5">
-        <v>2.124543882405392</v>
+        <v>1.631943373162754</v>
       </c>
       <c r="R5">
-        <v>92.54003733532693</v>
+        <v>104.1973752745352</v>
       </c>
       <c r="S5">
-        <v>8.369079333095119</v>
+        <v>5.113803095837079</v>
       </c>
       <c r="T5">
-        <v>2.787131797235772</v>
+        <v>3.88187007879271</v>
       </c>
       <c r="U5">
-        <v>1.025013037383745</v>
+        <v>1.356317016590864</v>
       </c>
       <c r="V5">
-        <v>33.16389707382488</v>
+        <v>49.62264114761213</v>
       </c>
       <c r="W5">
-        <v>170.7057146082715</v>
+        <v>154.7330233748001</v>
       </c>
       <c r="X5">
         <v>248.4734564657143</v>
       </c>
       <c r="Y5">
-        <v>118.4457575354068</v>
+        <v>75.76124349640426</v>
       </c>
       <c r="Z5">
-        <v>1.441214258410587</v>
+        <v>2.042377028594363</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>88.42215084459617</v>
+        <v>176.4062660357083</v>
       </c>
       <c r="H6">
-        <v>36.54212412624425</v>
+        <v>76.6606285549658</v>
       </c>
       <c r="I6">
-        <v>51.88002671835193</v>
+        <v>99.74563748074254</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>162.2460191555534</v>
+        <v>224.55970668834</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>0.319761476974125</v>
+        <v>0.4441831482224755</v>
       </c>
       <c r="O6">
-        <v>176.5166618065734</v>
+        <v>259.298690989726</v>
       </c>
       <c r="P6">
-        <v>14.27064265101997</v>
+        <v>34.73898430138603</v>
       </c>
       <c r="Q6">
-        <v>2.515210807503515</v>
+        <v>2.01011812105066</v>
       </c>
       <c r="R6">
-        <v>126.3523445296873</v>
+        <v>154.7302448372295</v>
       </c>
       <c r="S6">
-        <v>12.36921602784</v>
+        <v>7.464198974273996</v>
       </c>
       <c r="T6">
-        <v>2.419732102576164</v>
+        <v>2.301132528664629</v>
       </c>
       <c r="U6">
-        <v>0.883656832625933</v>
+        <v>0.8334014055113808</v>
       </c>
       <c r="V6">
-        <v>19.58932905553125</v>
+        <v>35.85656189564816</v>
       </c>
       <c r="W6">
-        <v>225.5408555094344</v>
+        <v>177.6752447470438</v>
       </c>
       <c r="X6">
         <v>277.4208822277864</v>
       </c>
       <c r="Y6">
-        <v>115.174863072233</v>
+        <v>52.86117553944638</v>
       </c>
       <c r="Z6">
-        <v>1.958247220732395</v>
+        <v>3.361167112419926</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>117.6572488170864</v>
+        <v>156.8566319362645</v>
       </c>
       <c r="H7">
-        <v>43.47842360904305</v>
+        <v>59.90687323332483</v>
       </c>
       <c r="I7">
-        <v>74.17882520804336</v>
+        <v>96.94975870293968</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>132.6018674780714</v>
+        <v>191.3271622897419</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.5594101095168245</v>
+        <v>0.5067223991757164</v>
       </c>
       <c r="O7">
-        <v>153.3278522837234</v>
+        <v>219.2908164303061</v>
       </c>
       <c r="P7">
-        <v>20.72598480565198</v>
+        <v>27.96365414056421</v>
       </c>
       <c r="Q7">
-        <v>2.001190236544319</v>
+        <v>2.059493177255395</v>
       </c>
       <c r="R7">
-        <v>91.12522904223474</v>
+        <v>133.7362073761203</v>
       </c>
       <c r="S7">
-        <v>7.397856059506076</v>
+        <v>7.841994301889245</v>
       </c>
       <c r="T7">
-        <v>2.706106593814385</v>
+        <v>2.618341159708678</v>
       </c>
       <c r="U7">
-        <v>0.9955109206262707</v>
+        <v>0.9625409721026122</v>
       </c>
       <c r="V7">
-        <v>30.89557969362594</v>
+        <v>39.28693870530723</v>
       </c>
       <c r="W7">
-        <v>166.9568318949869</v>
+        <v>144.1858984000905</v>
       </c>
       <c r="X7">
         <v>241.1356571030302</v>
       </c>
       <c r="Y7">
-        <v>108.5337896249588</v>
+        <v>49.80849481328829</v>
       </c>
       <c r="Z7">
-        <v>1.538293580938345</v>
+        <v>2.894805372870322</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>139.039161224935</v>
+        <v>188.5202835689851</v>
       </c>
       <c r="H8">
-        <v>43.50969461234226</v>
+        <v>43.83489810128368</v>
       </c>
       <c r="I8">
-        <v>95.52946661259276</v>
+        <v>144.6853854677015</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>115.2330414369612</v>
+        <v>183.1879275424971</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.8290110668028544</v>
+        <v>0.7898194352034277</v>
       </c>
       <c r="O8">
-        <v>132.1127595603432</v>
+        <v>207.522439225876</v>
       </c>
       <c r="P8">
-        <v>16.87971812338192</v>
+        <v>24.33451168337895</v>
       </c>
       <c r="Q8">
-        <v>2.057543006848717</v>
+        <v>2.143343898019396</v>
       </c>
       <c r="R8">
-        <v>80.50229545461923</v>
+        <v>131.0307004146451</v>
       </c>
       <c r="S8">
-        <v>7.826715979180927</v>
+        <v>8.527906453434969</v>
       </c>
       <c r="T8">
-        <v>3.195590372760148</v>
+        <v>4.30068944459265</v>
       </c>
       <c r="U8">
-        <v>1.161771850966358</v>
+        <v>1.458775345798861</v>
       </c>
       <c r="V8">
-        <v>44.98112816783093</v>
+        <v>80.74011683194351</v>
       </c>
       <c r="W8">
-        <v>152.2581700789492</v>
+        <v>103.1022512238405</v>
       </c>
       <c r="X8">
         <v>247.787636691542</v>
       </c>
       <c r="Y8">
-        <v>132.5545952545808</v>
+        <v>64.59970914904494</v>
       </c>
       <c r="Z8">
-        <v>1.148644977464013</v>
+        <v>1.596017266671623</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>118.6110037672634</v>
+        <v>165.2245157136217</v>
       </c>
       <c r="H9">
-        <v>23.51991106345942</v>
+        <v>35.13372907275645</v>
       </c>
       <c r="I9">
-        <v>95.09109270380394</v>
+        <v>130.0907866408652</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>144.9837300489048</v>
+        <v>209.5285516108573</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.6558742327275516</v>
+        <v>0.6208737932884377</v>
       </c>
       <c r="O9">
-        <v>157.8288442455154</v>
+        <v>236.7333294439443</v>
       </c>
       <c r="P9">
-        <v>12.84511419661051</v>
+        <v>27.20477783308695</v>
       </c>
       <c r="Q9">
-        <v>2.508547660725902</v>
+        <v>2.163541701906963</v>
       </c>
       <c r="R9">
-        <v>112.7611488792405</v>
+        <v>150.6698802778596</v>
       </c>
       <c r="S9">
-        <v>12.28707209836735</v>
+        <v>8.701902691373016</v>
       </c>
       <c r="T9">
-        <v>5.043003923239219</v>
+        <v>4.702732105990444</v>
       </c>
       <c r="U9">
-        <v>1.618001921051696</v>
+        <v>1.548143638974014</v>
       </c>
       <c r="V9">
-        <v>57.03583142016157</v>
+        <v>75.69872746344092</v>
       </c>
       <c r="W9">
-        <v>176.6883844747385</v>
+        <v>141.6886905376773</v>
       </c>
       <c r="X9">
         <v>271.7794771785425</v>
       </c>
       <c r="Y9">
-        <v>126.7957471296376</v>
+        <v>62.25092556768516</v>
       </c>
       <c r="Z9">
-        <v>1.393488255517671</v>
+        <v>2.276089700604047</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>75.59125694744726</v>
+        <v>169.1553011624915</v>
       </c>
       <c r="H10">
-        <v>31.26254163862724</v>
+        <v>40.4916596601476</v>
       </c>
       <c r="I10">
-        <v>44.32871530882002</v>
+        <v>128.6636415023439</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>128.7740021841484</v>
+        <v>183.8664391595483</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.344236527225654</v>
+        <v>0.6997668638739301</v>
       </c>
       <c r="O10">
-        <v>151.9508549492832</v>
+        <v>226.5463148753847</v>
       </c>
       <c r="P10">
-        <v>23.17685276513485</v>
+        <v>42.67987571583642</v>
       </c>
       <c r="Q10">
-        <v>1.880403090892152</v>
+        <v>1.669221890276559</v>
       </c>
       <c r="R10">
-        <v>85.19217660743647</v>
+        <v>112.6242563403912</v>
       </c>
       <c r="S10">
-        <v>6.556147052798483</v>
+        <v>5.308035955487199</v>
       </c>
       <c r="T10">
-        <v>2.417949820626501</v>
+        <v>4.177534400472505</v>
       </c>
       <c r="U10">
-        <v>0.8829199995481931</v>
+        <v>1.42972121615668</v>
       </c>
       <c r="V10">
-        <v>16.72639205936789</v>
+        <v>70.77185660883526</v>
       </c>
       <c r="W10">
-        <v>198.9437341579071</v>
+        <v>114.6088079643833</v>
       </c>
       <c r="X10">
         <v>243.2724494667271</v>
       </c>
       <c r="Y10">
-        <v>114.4984472825788</v>
+        <v>59.40601030717883</v>
       </c>
       <c r="Z10">
-        <v>1.737523423937094</v>
+        <v>1.929246003422208</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>101.5108257438699</v>
+        <v>164.5702770581458</v>
       </c>
       <c r="H11">
-        <v>16.02361548872433</v>
+        <v>41.39126861436443</v>
       </c>
       <c r="I11">
-        <v>85.48721025514561</v>
+        <v>123.1790084437813</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>138.2555256463959</v>
+        <v>203.9711893049994</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.6183276209428966</v>
+        <v>0.6039039575319187</v>
       </c>
       <c r="O11">
-        <v>153.4762432689084</v>
+        <v>244.4068383480964</v>
       </c>
       <c r="P11">
-        <v>15.22071762251246</v>
+        <v>40.43564904309696</v>
       </c>
       <c r="Q11">
-        <v>2.31088828678183</v>
+        <v>1.799122409117561</v>
       </c>
       <c r="R11">
-        <v>103.0821475761181</v>
+        <v>131.2225069843506</v>
       </c>
       <c r="S11">
-        <v>10.08337760907585</v>
+        <v>6.044340677890534</v>
       </c>
       <c r="T11">
-        <v>6.335076238898904</v>
+        <v>3.975966008469556</v>
       </c>
       <c r="U11">
-        <v>1.846101848254579</v>
+        <v>1.380267739580106</v>
       </c>
       <c r="V11">
-        <v>55.90598408569092</v>
+        <v>66.04797567507954</v>
       </c>
       <c r="W11">
-        <v>197.3098779357745</v>
+        <v>159.6180797471388</v>
       </c>
       <c r="X11">
         <v>282.7970881909201</v>
       </c>
       <c r="Y11">
-        <v>144.5415625445242</v>
+        <v>78.82589888592071</v>
       </c>
       <c r="Z11">
-        <v>1.365073647069476</v>
+        <v>2.024944618495795</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>222.3995014954962</v>
+        <v>249.7301349428071</v>
       </c>
       <c r="H12">
-        <v>36.78285090750939</v>
+        <v>41.76995614599402</v>
       </c>
       <c r="I12">
-        <v>185.6166505879868</v>
+        <v>207.9601787968131</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>194.8435224734777</v>
+        <v>231.1107490536695</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>0.9526447080798033</v>
+        <v>0.8998291063844881</v>
       </c>
       <c r="O12">
-        <v>222.4928700781229</v>
+        <v>256.1433965016357</v>
       </c>
       <c r="P12">
-        <v>27.64934760464516</v>
+        <v>25.03264744796624</v>
       </c>
       <c r="Q12">
-        <v>2.085292923578877</v>
+        <v>2.325556559398995</v>
       </c>
       <c r="R12">
-        <v>137.1865335719386</v>
+        <v>172.8959115819291</v>
       </c>
       <c r="S12">
-        <v>8.046948277388775</v>
+        <v>10.232373424907</v>
       </c>
       <c r="T12">
-        <v>6.046282330173931</v>
+        <v>5.978702349362118</v>
       </c>
       <c r="U12">
-        <v>1.799443592285508</v>
+        <v>1.788203545980545</v>
       </c>
       <c r="V12">
-        <v>119.4279852164758</v>
+        <v>133.2669951010947</v>
       </c>
       <c r="W12">
-        <v>73.9518188927953</v>
+        <v>51.60829068396902</v>
       </c>
       <c r="X12">
         <v>259.5684694807821</v>
       </c>
       <c r="Y12">
-        <v>64.72494700730437</v>
+        <v>28.45772042711263</v>
       </c>
       <c r="Z12">
-        <v>1.142555109152112</v>
+        <v>1.813507544153117</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>143.0397902623904</v>
+        <v>225.0788777471631</v>
       </c>
       <c r="H13">
-        <v>23.71743703169258</v>
+        <v>37.56481730736706</v>
       </c>
       <c r="I13">
-        <v>119.3223532306978</v>
+        <v>187.514060439796</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>193.1999544516116</v>
+        <v>235.0730312821631</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.6176106695748886</v>
+        <v>0.7976842746147216</v>
       </c>
       <c r="O13">
-        <v>210.4187827336958</v>
+        <v>269.7099498172491</v>
       </c>
       <c r="P13">
-        <v>17.21882828208418</v>
+        <v>34.63691853508609</v>
       </c>
       <c r="Q13">
-        <v>2.50309629575628</v>
+        <v>2.052426998733454</v>
       </c>
       <c r="R13">
-        <v>150.0995691614632</v>
+        <v>163.9832845278212</v>
       </c>
       <c r="S13">
-        <v>12.22027302244671</v>
+        <v>7.786776688695376</v>
       </c>
       <c r="T13">
-        <v>6.030996944199853</v>
+        <v>5.991746902573689</v>
       </c>
       <c r="U13">
-        <v>1.796912327786555</v>
+        <v>1.790383006099468</v>
       </c>
       <c r="V13">
-        <v>76.70419824494806</v>
+        <v>120.2586499054549</v>
       </c>
       <c r="W13">
-        <v>169.4964649294075</v>
+        <v>101.3047577203093</v>
       </c>
       <c r="X13">
         <v>288.8188181601053</v>
       </c>
       <c r="Y13">
-        <v>95.61886370849373</v>
+        <v>53.74578687794221</v>
       </c>
       <c r="Z13">
-        <v>1.772625801600603</v>
+        <v>1.884887422903947</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>139.5600420948917</v>
+        <v>185.8481916581534</v>
       </c>
       <c r="H14">
-        <v>46.76797434573815</v>
+        <v>49.92809262432315</v>
       </c>
       <c r="I14">
-        <v>92.79206774915353</v>
+        <v>135.9200990338303</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>185.6148007616862</v>
+        <v>189.6092761153028</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N14">
-        <v>0.4999173954252212</v>
+        <v>0.7168430881576503</v>
       </c>
       <c r="O14">
-        <v>207.5260526465682</v>
+        <v>220.4883478052122</v>
       </c>
       <c r="P14">
-        <v>21.91125188488202</v>
+        <v>30.8790716899094</v>
       </c>
       <c r="Q14">
-        <v>2.248256597134516</v>
+        <v>1.965766186220335</v>
       </c>
       <c r="R14">
-        <v>136.352684160024</v>
+        <v>128.9082411254052</v>
       </c>
       <c r="S14">
-        <v>9.471209300905063</v>
+        <v>7.140381356647548</v>
       </c>
       <c r="T14">
-        <v>2.984094223606446</v>
+        <v>3.722317074207937</v>
       </c>
       <c r="U14">
-        <v>1.093296258118613</v>
+        <v>1.314346343793153</v>
       </c>
       <c r="V14">
-        <v>41.66081639717072</v>
+        <v>70.29729304048527</v>
       </c>
       <c r="W14">
-        <v>138.6525000683412</v>
+        <v>95.5244687836645</v>
       </c>
       <c r="X14">
         <v>231.4445678174948</v>
       </c>
       <c r="Y14">
-        <v>45.82976705580859</v>
+        <v>41.83529170219197</v>
       </c>
       <c r="Z14">
-        <v>3.025380859987767</v>
+        <v>2.283346545391949</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>156.2849637390093</v>
+        <v>243.4335859208063</v>
       </c>
       <c r="H15">
-        <v>32.99180398466453</v>
+        <v>74.68260529660591</v>
       </c>
       <c r="I15">
-        <v>123.2931597543448</v>
+        <v>168.7509806242004</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>178.2967363485797</v>
+        <v>209.5180387248002</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>0.6915054211272831</v>
+        <v>0.8054245908909687</v>
       </c>
       <c r="O15">
-        <v>233.2871406344663</v>
+        <v>270.0607667565276</v>
       </c>
       <c r="P15">
-        <v>54.99040428588663</v>
+        <v>60.5427280317274</v>
       </c>
       <c r="Q15">
-        <v>1.445111355585566</v>
+        <v>1.495297631517904</v>
       </c>
       <c r="R15">
-        <v>98.82947866680372</v>
+        <v>118.9886408933257</v>
       </c>
       <c r="S15">
-        <v>4.242324523050285</v>
+        <v>4.460663989488586</v>
       </c>
       <c r="T15">
-        <v>4.737084513828184</v>
+        <v>3.259575438671388</v>
       </c>
       <c r="U15">
-        <v>1.555421864995927</v>
+        <v>1.181596953361109</v>
       </c>
       <c r="V15">
-        <v>71.9769864709378</v>
+        <v>80.50624173666064</v>
       </c>
       <c r="W15">
-        <v>161.8243892652773</v>
+        <v>116.3665683954217</v>
       </c>
       <c r="X15">
         <v>285.1175490196221</v>
       </c>
       <c r="Y15">
-        <v>106.8208126710424</v>
+        <v>75.59951029482187</v>
       </c>
       <c r="Z15">
-        <v>1.514914418069632</v>
+        <v>1.539250293310328</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>112.7081076101222</v>
+        <v>198.2940448539315</v>
       </c>
       <c r="H16">
-        <v>13.80606938085148</v>
+        <v>57.30280511002076</v>
       </c>
       <c r="I16">
-        <v>98.90203822927069</v>
+        <v>140.9912397439108</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>207.5165539727843</v>
+        <v>241.0610488631041</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.4765983066692676</v>
+        <v>0.584877732876613</v>
       </c>
       <c r="O16">
-        <v>239.5265615441263</v>
+        <v>278.6160537314234</v>
       </c>
       <c r="P16">
-        <v>32.01000757134194</v>
+        <v>37.55500486831929</v>
       </c>
       <c r="Q16">
-        <v>2.012615724340136</v>
+        <v>2.004028027785314</v>
       </c>
       <c r="R16">
-        <v>143.0927093984548</v>
+        <v>165.7997665233783</v>
       </c>
       <c r="S16">
-        <v>7.482864882499142</v>
+        <v>7.418879446517095</v>
       </c>
       <c r="T16">
-        <v>8.163663712022501</v>
+        <v>3.460459648933575</v>
       </c>
       <c r="U16">
-        <v>2.0996930525292</v>
+        <v>1.24140142675891</v>
       </c>
       <c r="V16">
-        <v>69.91353026756073</v>
+        <v>69.85545572304322</v>
       </c>
       <c r="W16">
-        <v>192.8375742147369</v>
+        <v>150.7483727000968</v>
       </c>
       <c r="X16">
         <v>291.7396124440075</v>
       </c>
       <c r="Y16">
-        <v>84.22305847122323</v>
+        <v>50.67856358090344</v>
       </c>
       <c r="Z16">
-        <v>2.289605456213922</v>
+        <v>2.974598371547006</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>217.4308850133415</v>
+        <v>182.3794616981253</v>
       </c>
       <c r="H17">
-        <v>68.34759686573844</v>
+        <v>48.76772353972504</v>
       </c>
       <c r="I17">
-        <v>149.083288147603</v>
+        <v>133.6117381584003</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>173.1045271541616</v>
+        <v>209.8953522348191</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.8612327510928354</v>
+        <v>0.6365635862623725</v>
       </c>
       <c r="O17">
-        <v>203.0048409843269</v>
+        <v>249.5752437525121</v>
       </c>
       <c r="P17">
-        <v>29.90031383016527</v>
+        <v>39.67989151769307</v>
       </c>
       <c r="Q17">
-        <v>1.915360849637172</v>
+        <v>1.838915899408571</v>
       </c>
       <c r="R17">
-        <v>115.8346366519982</v>
+        <v>136.9273688361259</v>
       </c>
       <c r="S17">
-        <v>6.789388303326875</v>
+        <v>6.289715878916346</v>
       </c>
       <c r="T17">
-        <v>3.181251353145031</v>
+        <v>3.73975753757633</v>
       </c>
       <c r="U17">
-        <v>1.157274626666713</v>
+        <v>1.319020779799871</v>
       </c>
       <c r="V17">
-        <v>69.98634850123855</v>
+        <v>69.28609742596767</v>
       </c>
       <c r="W17">
-        <v>126.7817581979338</v>
+        <v>142.2533081871365</v>
       </c>
       <c r="X17">
         <v>275.8650463455368</v>
       </c>
       <c r="Y17">
-        <v>102.7605191913752</v>
+        <v>65.96969411071771</v>
       </c>
       <c r="Z17">
-        <v>1.233759416511149</v>
+        <v>2.156343304372324</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>118.7206642030551</v>
+        <v>207.0528631449669</v>
       </c>
       <c r="H18">
-        <v>35.23003960618502</v>
+        <v>51.62221880931602</v>
       </c>
       <c r="I18">
-        <v>83.49062459687012</v>
+        <v>155.4306443356509</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>201.1861230087103</v>
+        <v>228.3148416647294</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N18">
-        <v>0.414991965391447</v>
+        <v>0.6807732830785226</v>
       </c>
       <c r="O18">
-        <v>241.334747636913</v>
+        <v>284.2735021787552</v>
       </c>
       <c r="P18">
-        <v>40.14862462820268</v>
+        <v>55.95866051402577</v>
       </c>
       <c r="Q18">
-        <v>1.793596780103907</v>
+        <v>1.625323597559474</v>
       </c>
       <c r="R18">
-        <v>129.1756791499656</v>
+        <v>137.3639102434637</v>
       </c>
       <c r="S18">
-        <v>6.011033998593958</v>
+        <v>5.080062667109471</v>
       </c>
       <c r="T18">
-        <v>3.369870301883295</v>
+        <v>4.010925293811684</v>
       </c>
       <c r="U18">
-        <v>1.214874257535619</v>
+        <v>1.389021961287034</v>
       </c>
       <c r="V18">
-        <v>40.69055638735566</v>
+        <v>83.72624871914633</v>
       </c>
       <c r="W18">
-        <v>204.0311245603904</v>
+        <v>132.0911048216097</v>
       </c>
       <c r="X18">
         <v>287.5217491572606</v>
       </c>
       <c r="Y18">
-        <v>86.33562614855023</v>
+        <v>59.20690749253117</v>
       </c>
       <c r="Z18">
-        <v>2.363232117055962</v>
+        <v>2.23100834709654</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>202.5776444247777</v>
+        <v>188.7517652469168</v>
       </c>
       <c r="H19">
-        <v>57.7869537205347</v>
+        <v>48.91318988442265</v>
       </c>
       <c r="I19">
-        <v>144.790690704243</v>
+        <v>139.8385753624942</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>176.043506655738</v>
+        <v>205.7752082365883</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N19">
-        <v>0.8224710666971009</v>
+        <v>0.6795695971388155</v>
       </c>
       <c r="O19">
-        <v>220.4631965604297</v>
+        <v>234.2778426632558</v>
       </c>
       <c r="P19">
-        <v>44.41968990469165</v>
+        <v>28.5026344266675</v>
       </c>
       <c r="Q19">
-        <v>1.60204793447511</v>
+        <v>2.10651125378387</v>
       </c>
       <c r="R19">
-        <v>104.8810341939019</v>
+        <v>145.7340880543256</v>
       </c>
       <c r="S19">
-        <v>4.963186303944553</v>
+        <v>8.219515401848675</v>
       </c>
       <c r="T19">
-        <v>3.505594799207964</v>
+        <v>3.858913427910137</v>
       </c>
       <c r="U19">
-        <v>1.25436020629109</v>
+        <v>1.350385648489416</v>
       </c>
       <c r="V19">
-        <v>72.30503551441949</v>
+        <v>73.78690572073219</v>
       </c>
       <c r="W19">
-        <v>114.0935265859304</v>
+        <v>119.0456419276793</v>
       </c>
       <c r="X19">
         <v>258.8842172901735</v>
       </c>
       <c r="Y19">
-        <v>82.84071063443542</v>
+        <v>53.10900905358514</v>
       </c>
       <c r="Z19">
-        <v>1.377263977000503</v>
+        <v>2.241533857420807</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>186.5202538034925</v>
+        <v>234.6566301971974</v>
       </c>
       <c r="H20">
-        <v>85.48327589382879</v>
+        <v>87.47479084067996</v>
       </c>
       <c r="I20">
-        <v>101.0369779096637</v>
+        <v>147.1818393565174</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>211.7810417103181</v>
+        <v>239.8674797111886</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.4770822595530803</v>
+        <v>0.6135964722426361</v>
       </c>
       <c r="O20">
-        <v>247.532897028719</v>
+        <v>295.6658367374206</v>
       </c>
       <c r="P20">
-        <v>35.75185531840098</v>
+        <v>55.79835702623209</v>
       </c>
       <c r="Q20">
-        <v>1.934941325652157</v>
+        <v>1.667485461682053</v>
       </c>
       <c r="R20">
-        <v>142.6032993860072</v>
+        <v>146.8245305842019</v>
       </c>
       <c r="S20">
-        <v>6.923637803527286</v>
+        <v>5.298826927796841</v>
       </c>
       <c r="T20">
-        <v>2.1819502335773</v>
+        <v>2.682562918322188</v>
       </c>
       <c r="U20">
-        <v>0.7802190794410175</v>
+        <v>0.9867726503537775</v>
       </c>
       <c r="V20">
-        <v>34.34129508417809</v>
+        <v>60.86410815951733</v>
       </c>
       <c r="W20">
-        <v>198.6375673644946</v>
+        <v>152.4927059176408</v>
       </c>
       <c r="X20">
         <v>299.6745452741583</v>
       </c>
       <c r="Y20">
-        <v>87.89350356384017</v>
+        <v>59.80706556296965</v>
       </c>
       <c r="Z20">
-        <v>2.259980081693035</v>
+        <v>2.549743988978766</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>180.2848327986311</v>
+        <v>236.5987075689761</v>
       </c>
       <c r="H21">
-        <v>55.61421389744112</v>
+        <v>71.49717391696986</v>
       </c>
       <c r="I21">
-        <v>124.67061890119</v>
+        <v>165.1015336520063</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="K21">
-        <v>179.1325942669112</v>
+        <v>198.1909851787077</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="N21">
-        <v>0.6959683658431709</v>
+        <v>0.833042600313708</v>
       </c>
       <c r="O21">
-        <v>201.6573566376509</v>
+        <v>236.5987075689761</v>
       </c>
       <c r="P21">
-        <v>22.52476237073967</v>
+        <v>38.4077223902684</v>
       </c>
       <c r="Q21">
-        <v>2.19195474900389</v>
+        <v>1.818106945726234</v>
       </c>
       <c r="R21">
-        <v>129.7593344181843</v>
+        <v>128.3616383314358</v>
       </c>
       <c r="S21">
-        <v>8.952696295682559</v>
+        <v>6.160185838796955</v>
       </c>
       <c r="T21">
-        <v>3.241704236458267</v>
+        <v>3.30920363151332</v>
       </c>
       <c r="U21">
-        <v>1.176099190422177</v>
+        <v>1.196707565732455</v>
       </c>
       <c r="V21">
-        <v>59.26278696044372</v>
+        <v>79.54032469707931</v>
       </c>
       <c r="W21">
-        <v>122.3591038117814</v>
+        <v>81.92818906096517</v>
       </c>
       <c r="X21">
         <v>247.0297227129714</v>
       </c>
       <c r="Y21">
-        <v>67.89712844606018</v>
+        <v>48.83873753426369</v>
       </c>
       <c r="Z21">
-        <v>1.802124870553071</v>
+        <v>1.677524710860656</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>112.2929694771994</v>
+        <v>189.3779679060833</v>
       </c>
       <c r="H22">
-        <v>5.668828451148675</v>
+        <v>47.75510533262151</v>
       </c>
       <c r="I22">
-        <v>106.6241410260507</v>
+        <v>141.6228625734618</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>170.4973195277622</v>
+        <v>216.3096349230154</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.6253713625608586</v>
+        <v>0.6547228588493773</v>
       </c>
       <c r="O22">
-        <v>188.084366826073</v>
+        <v>245.3635115355304</v>
       </c>
       <c r="P22">
-        <v>17.5870472983108</v>
+        <v>29.05387661251494</v>
       </c>
       <c r="Q22">
-        <v>2.369727939739463</v>
+        <v>2.133588910863423</v>
       </c>
       <c r="R22">
-        <v>128.8208021674357</v>
+        <v>154.3206059649594</v>
       </c>
       <c r="S22">
-        <v>10.69448234463656</v>
+        <v>8.445121276168708</v>
       </c>
       <c r="T22">
-        <v>19.8088494730239</v>
+        <v>3.965606746902497</v>
       </c>
       <c r="U22">
-        <v>2.986128780933196</v>
+        <v>1.377658869080077</v>
       </c>
       <c r="V22">
-        <v>89.69628923390269</v>
+        <v>75.83261816812247</v>
       </c>
       <c r="W22">
-        <v>146.9095434106931</v>
+        <v>111.910821863282</v>
       </c>
       <c r="X22">
         <v>253.5336844367438</v>
       </c>
       <c r="Y22">
-        <v>83.03636490898162</v>
+        <v>37.22404951372837</v>
       </c>
       <c r="Z22">
-        <v>1.769219348314736</v>
+        <v>3.006411804336572</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>120.8776709036331</v>
+        <v>191.3129112560567</v>
       </c>
       <c r="H23">
-        <v>12.37610187558061</v>
+        <v>44.33533395220355</v>
       </c>
       <c r="I23">
-        <v>108.5015690280524</v>
+        <v>146.9775773038531</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>158.6738760476161</v>
+        <v>211.399424687369</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.6838023481287645</v>
+        <v>0.695260062893799</v>
       </c>
       <c r="O23">
-        <v>171.3944031715113</v>
+        <v>236.5029114261434</v>
       </c>
       <c r="P23">
-        <v>12.72052712389515</v>
+        <v>25.10348673877434</v>
       </c>
       <c r="Q23">
-        <v>2.600750354410952</v>
+        <v>2.242953767940676</v>
       </c>
       <c r="R23">
-        <v>125.5909606218517</v>
+        <v>155.0934645181863</v>
       </c>
       <c r="S23">
-        <v>13.47384440142829</v>
+        <v>9.421118025841633</v>
       </c>
       <c r="T23">
-        <v>9.767022938146443</v>
+        <v>4.315134097383923</v>
       </c>
       <c r="U23">
-        <v>2.279011704998104</v>
+        <v>1.462128401082388</v>
       </c>
       <c r="V23">
-        <v>80.29628799135524</v>
+        <v>82.15362636086401</v>
       </c>
       <c r="W23">
-        <v>136.0248489818292</v>
+        <v>97.54884070602856</v>
       </c>
       <c r="X23">
         <v>244.5264180098817</v>
       </c>
       <c r="Y23">
-        <v>85.85254196226552</v>
+        <v>33.12699332251267</v>
       </c>
       <c r="Z23">
-        <v>1.584400949265029</v>
+        <v>2.944693463615233</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>109.0761021393109</v>
+        <v>228.2962145061126</v>
       </c>
       <c r="H24">
-        <v>26.9739144905009</v>
+        <v>69.6011697975178</v>
       </c>
       <c r="I24">
-        <v>82.10218764881003</v>
+        <v>158.6950447085948</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>142.1850356280616</v>
+        <v>204.0392092493005</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.577431987031175</v>
+        <v>0.7777673972197032</v>
       </c>
       <c r="O24">
-        <v>156.798590493367</v>
+        <v>228.2962145061127</v>
       </c>
       <c r="P24">
-        <v>14.6135548653054</v>
+        <v>24.25700525681218</v>
       </c>
       <c r="Q24">
-        <v>2.373012605240313</v>
+        <v>2.241938519936053</v>
       </c>
       <c r="R24">
-        <v>107.506885725321</v>
+        <v>149.6564947857619</v>
       </c>
       <c r="S24">
-        <v>10.72966789659294</v>
+        <v>9.411558108229352</v>
       </c>
       <c r="T24">
-        <v>4.04376243491552</v>
+        <v>3.280062895067238</v>
       </c>
       <c r="U24">
-        <v>1.397175554357374</v>
+        <v>1.187862597537586</v>
       </c>
       <c r="V24">
-        <v>44.41489371735605</v>
+        <v>76.01841836126081</v>
       </c>
       <c r="W24">
-        <v>171.140893508689</v>
+        <v>94.54803644890416</v>
       </c>
       <c r="X24">
         <v>253.243081157499</v>
       </c>
       <c r="Y24">
-        <v>111.0580455294374</v>
+        <v>49.20387190819849</v>
       </c>
       <c r="Z24">
-        <v>1.541004010045592</v>
+        <v>1.921556836529165</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>110.7945296529557</v>
+        <v>144.3031323129148</v>
       </c>
       <c r="H25">
-        <v>28.08598240566123</v>
+        <v>40.20909634417022</v>
       </c>
       <c r="I25">
-        <v>82.70854724729449</v>
+        <v>104.0940359687446</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>168.0525081332845</v>
+        <v>238.157844917737</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.4921589577330041</v>
+        <v>0.4370800214651762</v>
       </c>
       <c r="O25">
-        <v>183.6070680117969</v>
+        <v>262.4639394170275</v>
       </c>
       <c r="P25">
-        <v>15.55455987851235</v>
+        <v>24.30609449929051</v>
       </c>
       <c r="Q25">
-        <v>2.468444138827109</v>
+        <v>2.379386577604868</v>
       </c>
       <c r="R25">
-        <v>129.6569459691354</v>
+        <v>180.3242499121297</v>
       </c>
       <c r="S25">
-        <v>11.80406706752523</v>
+        <v>10.79827692699413</v>
       </c>
       <c r="T25">
-        <v>3.944833691508085</v>
+        <v>3.588818089263944</v>
       </c>
       <c r="U25">
-        <v>1.37240679663053</v>
+        <v>1.277822925248128</v>
       </c>
       <c r="V25">
-        <v>44.16315410371954</v>
+        <v>52.71393085665321</v>
       </c>
       <c r="W25">
-        <v>198.8700501240629</v>
+        <v>177.4845614026128</v>
       </c>
       <c r="X25">
         <v>281.5785973713574</v>
       </c>
       <c r="Y25">
-        <v>113.5260892380729</v>
+        <v>43.42075245362039</v>
       </c>
       <c r="Z25">
-        <v>1.751756371233904</v>
+        <v>4.087551490320021</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>90.80741510980315</v>
+        <v>195.1156222363909</v>
       </c>
       <c r="H26">
-        <v>35.27911728950696</v>
+        <v>65.74779049186864</v>
       </c>
       <c r="I26">
-        <v>55.52829782029618</v>
+        <v>129.3678317445223</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>152.3018660414955</v>
+        <v>195.3623692661556</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.3645936800614589</v>
+        <v>0.6621942200561439</v>
       </c>
       <c r="O26">
-        <v>171.65292790485</v>
+        <v>214.5516408570521</v>
       </c>
       <c r="P26">
-        <v>19.35106186335457</v>
+        <v>19.18927159089645</v>
       </c>
       <c r="Q26">
-        <v>2.18272728254142</v>
+        <v>2.414199107753394</v>
       </c>
       <c r="R26">
-        <v>110.0637753662046</v>
+        <v>149.0356469129759</v>
       </c>
       <c r="S26">
-        <v>8.87046556498856</v>
+        <v>11.18081214499237</v>
       </c>
       <c r="T26">
-        <v>2.573970725078541</v>
+        <v>2.96763770731614</v>
       </c>
       <c r="U26">
-        <v>0.9454497357908982</v>
+        <v>1.087766251586294</v>
       </c>
       <c r="V26">
-        <v>22.17366569999572</v>
+        <v>57.84960413110139</v>
       </c>
       <c r="W26">
-        <v>180.6384140269603</v>
+        <v>106.7988801027342</v>
       </c>
       <c r="X26">
         <v>236.1667118472565</v>
       </c>
       <c r="Y26">
-        <v>83.86484580576104</v>
+        <v>40.80434258110088</v>
       </c>
       <c r="Z26">
-        <v>2.153922925528726</v>
+        <v>2.617341031545001</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>136.2085956766076</v>
+        <v>224.0125687041197</v>
       </c>
       <c r="H27">
-        <v>8.497914155045454</v>
+        <v>39.73098812603921</v>
       </c>
       <c r="I27">
-        <v>127.7106815215622</v>
+        <v>184.2815805780805</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>148.3135339066694</v>
+        <v>218.2057769449092</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.8610858237787515</v>
+        <v>0.8445311721724321</v>
       </c>
       <c r="O27">
-        <v>160.0998835040172</v>
+        <v>249.5195783507649</v>
       </c>
       <c r="P27">
-        <v>11.78634959734787</v>
+        <v>31.31380140585574</v>
       </c>
       <c r="Q27">
-        <v>2.608855844295287</v>
+        <v>2.075478442611615</v>
       </c>
       <c r="R27">
-        <v>117.564646876721</v>
+        <v>153.2146571708343</v>
       </c>
       <c r="S27">
-        <v>13.58350031803252</v>
+        <v>7.968357949159897</v>
       </c>
       <c r="T27">
-        <v>16.02847395154453</v>
+        <v>5.638233008287669</v>
       </c>
       <c r="U27">
-        <v>2.77436676256035</v>
+        <v>1.729570720019501</v>
       </c>
       <c r="V27">
-        <v>104.134350938713</v>
+        <v>115.5640268378406</v>
       </c>
       <c r="W27">
-        <v>139.2895736780251</v>
+        <v>82.71867462150686</v>
       </c>
       <c r="X27">
         <v>267.0002551995873</v>
       </c>
       <c r="Y27">
-        <v>118.686721292918</v>
+        <v>48.7944782546781</v>
       </c>
       <c r="Z27">
-        <v>1.173590205885454</v>
+        <v>1.695246625853128</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>67.9534732891578</v>
+        <v>206.1024145893834</v>
       </c>
       <c r="H28">
-        <v>29.61795061998165</v>
+        <v>78.296382601517</v>
       </c>
       <c r="I28">
-        <v>38.33552266917615</v>
+        <v>127.8060319878664</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>177.3561599392056</v>
+        <v>225.3805634216142</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.2161499362769066</v>
+        <v>0.5670676745482377</v>
       </c>
       <c r="O28">
-        <v>186.3749865343315</v>
+        <v>255.9071619061879</v>
       </c>
       <c r="P28">
-        <v>9.018826595125844</v>
+        <v>30.52659848457366</v>
       </c>
       <c r="Q28">
-        <v>3.028446464454472</v>
+        <v>2.126216344869934</v>
       </c>
       <c r="R28">
-        <v>150.0431264236688</v>
+        <v>160.474410770432</v>
       </c>
       <c r="S28">
-        <v>20.66510366604192</v>
+        <v>8.383088015374797</v>
       </c>
       <c r="T28">
-        <v>2.294334073314081</v>
+        <v>2.632336357585314</v>
       </c>
       <c r="U28">
-        <v>0.8304426372734529</v>
+        <v>0.9678718007330794</v>
       </c>
       <c r="V28">
-        <v>13.73951364568369</v>
+        <v>52.02517116844999</v>
       </c>
       <c r="W28">
-        <v>230.5805183217213</v>
+        <v>141.1100090030311</v>
       </c>
       <c r="X28">
         <v>268.9160409908975</v>
       </c>
       <c r="Y28">
-        <v>91.55988105169189</v>
+        <v>43.53547756928327</v>
       </c>
       <c r="Z28">
-        <v>2.51835755653224</v>
+        <v>3.241264754210303</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>111.2013376968187</v>
+        <v>111.5395984394507</v>
       </c>
       <c r="H29">
-        <v>24.69041576228701</v>
+        <v>24.82016888202974</v>
       </c>
       <c r="I29">
-        <v>86.51092193453169</v>
+        <v>86.71942955742091</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>134.1859022575272</v>
+        <v>179.6108996367918</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.6447094700641612</v>
+        <v>0.4828183018557586</v>
       </c>
       <c r="O29">
-        <v>143.269529198974</v>
+        <v>202.4724850531107</v>
       </c>
       <c r="P29">
-        <v>9.083626941446749</v>
+        <v>22.86158541631892</v>
       </c>
       <c r="Q29">
-        <v>2.758254120041819</v>
+        <v>2.181145991777014</v>
       </c>
       <c r="R29">
-        <v>109.1309508213589</v>
+        <v>129.74644424032</v>
       </c>
       <c r="S29">
-        <v>15.77228238483288</v>
+        <v>8.856449864084365</v>
       </c>
       <c r="T29">
-        <v>4.503826050052647</v>
+        <v>4.493909730010233</v>
       </c>
       <c r="U29">
-        <v>1.504927268877682</v>
+        <v>1.502723086781296</v>
       </c>
       <c r="V29">
-        <v>49.35364197393862</v>
+        <v>49.42158876058411</v>
       </c>
       <c r="W29">
-        <v>139.3070505414789</v>
+        <v>139.0985429185897</v>
       </c>
       <c r="X29">
         <v>225.8179724760106</v>
       </c>
       <c r="Y29">
-        <v>91.63207021848342</v>
+        <v>46.20707283921882</v>
       </c>
       <c r="Z29">
-        <v>1.520287058988424</v>
+        <v>3.01033011553435</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>113.7723848405017</v>
+        <v>174.1864945096979</v>
       </c>
       <c r="H30">
-        <v>19.35076738924162</v>
+        <v>42.58975702319972</v>
       </c>
       <c r="I30">
-        <v>94.42161745126009</v>
+        <v>131.5967374864981</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>161.9992293439387</v>
+        <v>226.658506188999</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.5828522631474662</v>
+        <v>0.5805947444865199</v>
       </c>
       <c r="O30">
-        <v>174.5239583677593</v>
+        <v>254.1899177389817</v>
       </c>
       <c r="P30">
-        <v>12.52472902382059</v>
+        <v>27.53141154998277</v>
       </c>
       <c r="Q30">
-        <v>2.634357017542333</v>
+        <v>2.222754104262208</v>
       </c>
       <c r="R30">
-        <v>129.0046215472208</v>
+        <v>165.4629481701427</v>
       </c>
       <c r="S30">
-        <v>13.93435003949664</v>
+        <v>9.232723766360635</v>
       </c>
       <c r="T30">
-        <v>5.87947664048483</v>
+        <v>4.089868237914907</v>
       </c>
       <c r="U30">
-        <v>1.771467751228935</v>
+        <v>1.408512753867048</v>
       </c>
       <c r="V30">
-        <v>60.14235705968603</v>
+        <v>71.60852153522266</v>
       </c>
       <c r="W30">
-        <v>165.7283461132775</v>
+        <v>128.5532260780394</v>
       </c>
       <c r="X30">
         <v>260.1499635645376</v>
       </c>
       <c r="Y30">
-        <v>98.15073422059888</v>
+        <v>33.49145737553863</v>
       </c>
       <c r="Z30">
-        <v>1.688508470459267</v>
+        <v>3.838388537010387</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>146.9255830844818</v>
+        <v>183.1649239953595</v>
       </c>
       <c r="H31">
-        <v>44.71489195055983</v>
+        <v>40.04345997468166</v>
       </c>
       <c r="I31">
-        <v>102.210691133922</v>
+        <v>143.1214640206778</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>145.6643609319224</v>
+        <v>209.4815159383705</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.701686332058197</v>
+        <v>0.683217626049566</v>
       </c>
       <c r="O31">
-        <v>175.9847197599682</v>
+        <v>269.2960488270966</v>
       </c>
       <c r="P31">
-        <v>30.32035882804579</v>
+        <v>59.81453288872615</v>
       </c>
       <c r="Q31">
-        <v>1.75857777632126</v>
+        <v>1.504562671371746</v>
       </c>
       <c r="R31">
-        <v>92.34365172683495</v>
+        <v>119.4868025484555</v>
       </c>
       <c r="S31">
-        <v>5.804176683990477</v>
+        <v>4.502184265621066</v>
       </c>
       <c r="T31">
-        <v>3.285831110738987</v>
+        <v>4.574153285234829</v>
       </c>
       <c r="U31">
-        <v>1.189619621684057</v>
+        <v>1.520421607333518</v>
       </c>
       <c r="V31">
-        <v>49.01697828805349</v>
+        <v>82.23852224277692</v>
       </c>
       <c r="W31">
-        <v>174.1197543303822</v>
+        <v>133.2089814436263</v>
       </c>
       <c r="X31">
         <v>276.3304454643041</v>
       </c>
       <c r="Y31">
-        <v>130.6660845323817</v>
+        <v>66.84892952593367</v>
       </c>
       <c r="Z31">
-        <v>1.332555076962084</v>
+        <v>1.992686829666414</v>
       </c>
     </row>
   </sheetData>
